--- a/sjdj/scraped_data5.xlsx
+++ b/sjdj/scraped_data5.xlsx
@@ -648,7 +648,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10903393</t>
+          <t>10906787</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>56755808</t>
+          <t>57309148</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22187397</t>
+          <t>38000967</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1877,11 +1877,7 @@
           <t>string</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1d 17:52:51</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2022,7 +2018,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5961480</t>
+          <t>5953900</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2098,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>22586624839037</t>
+          <t>22615445694729</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2787,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-02-21 10:55:22</t>
+          <t>2025-02-21 11:34:46</t>
         </is>
       </c>
     </row>
@@ -4161,11 +4157,7 @@
           <t>string</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
+      <c r="C186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
